--- a/data/women/W_2020_09_MCR.xlsx
+++ b/data/women/W_2020_09_MCR.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\women\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6BB2B7-7AB9-4428-A8E8-C3708F0269A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42562ABA-BD89-4577-99A6-E96D50833E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="-13716" windowWidth="16452" windowHeight="12360" tabRatio="682" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="-10452" windowWidth="23040" windowHeight="9672" tabRatio="682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="initiation" sheetId="1" r:id="rId1"/>
-    <sheet name="first_round" sheetId="2" r:id="rId2"/>
-    <sheet name="total_rank" sheetId="3" r:id="rId3"/>
-    <sheet name="pools" sheetId="4" r:id="rId4"/>
-    <sheet name="eliminations" sheetId="5" r:id="rId5"/>
+    <sheet name="total" sheetId="6" r:id="rId1"/>
+    <sheet name="initiation" sheetId="1" r:id="rId2"/>
+    <sheet name="first_round" sheetId="2" r:id="rId3"/>
+    <sheet name="total_rank" sheetId="3" r:id="rId4"/>
+    <sheet name="pools" sheetId="4" r:id="rId5"/>
+    <sheet name="eliminations" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">eliminations!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">first_round!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">initiation!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pools!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">total_rank!$A$1:$H$1</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">first_round!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">initiation!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">total_rank!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">eliminations!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">first_round!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">initiation!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">pools!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">total_rank!$A$1:$H$1</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">first_round!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">initiation!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">total_rank!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -94,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -338,6 +340,9 @@
   <si>
     <t>Eliminace_32</t>
   </si>
+  <si>
+    <t>Percentil</t>
+  </si>
 </sst>
 </file>
 
@@ -408,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -445,6 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,11 +730,1979 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E7459E-1464-4BEB-AA73-84C66830BC05}">
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5"/>
+    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1">
+        <v>37414</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>-4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2">
+        <v>22</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="20">
+        <f>P2/MAX($P$2:$P$36)</f>
+        <v>8.5714285714285715E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>37371</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>0.83</v>
+      </c>
+      <c r="K3">
+        <v>29</v>
+      </c>
+      <c r="L3">
+        <v>22</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="20">
+        <f t="shared" ref="Q3:Q36" si="0">P3/MAX($P$2:$P$36)</f>
+        <v>8.5714285714285715E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>36617</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>0.67</v>
+      </c>
+      <c r="K4">
+        <v>26</v>
+      </c>
+      <c r="L4">
+        <v>16</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1">
+        <v>29490</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>24</v>
+      </c>
+      <c r="L5">
+        <v>18</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.31428571428571428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1">
+        <v>37189</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0.83</v>
+      </c>
+      <c r="K6">
+        <v>27</v>
+      </c>
+      <c r="L6">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.17142857142857143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1">
+        <v>37903</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0.33</v>
+      </c>
+      <c r="K7">
+        <v>19</v>
+      </c>
+      <c r="L7">
+        <v>25</v>
+      </c>
+      <c r="M7">
+        <v>-6</v>
+      </c>
+      <c r="N7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7">
+        <v>28</v>
+      </c>
+      <c r="P7">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="20">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1">
+        <v>32455</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0.33</v>
+      </c>
+      <c r="K8">
+        <v>19</v>
+      </c>
+      <c r="L8">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>-6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8">
+        <v>28</v>
+      </c>
+      <c r="P8">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="20">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>33010</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>29</v>
+      </c>
+      <c r="L9">
+        <v>18</v>
+      </c>
+      <c r="M9">
+        <v>11</v>
+      </c>
+      <c r="N9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="20">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1">
+        <v>33420</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>17</v>
+      </c>
+      <c r="L10">
+        <v>30</v>
+      </c>
+      <c r="M10">
+        <v>-13</v>
+      </c>
+      <c r="N10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10">
+        <v>33</v>
+      </c>
+      <c r="P10">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="20">
+        <f t="shared" si="0"/>
+        <v>0.94285714285714284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5">
+        <v>40</v>
+      </c>
+      <c r="H11" s="1">
+        <v>37260</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.17</v>
+      </c>
+      <c r="K11">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>26</v>
+      </c>
+      <c r="M11">
+        <v>-10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11">
+        <v>32</v>
+      </c>
+      <c r="P11">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="20">
+        <f t="shared" si="0"/>
+        <v>0.91428571428571426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="5">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1">
+        <v>37934</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>0.67</v>
+      </c>
+      <c r="K12">
+        <v>25</v>
+      </c>
+      <c r="L12">
+        <v>22</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="20">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="5">
+        <v>32</v>
+      </c>
+      <c r="H13" s="1">
+        <v>35537</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
+      </c>
+      <c r="K13">
+        <v>25</v>
+      </c>
+      <c r="L13">
+        <v>25</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13">
+        <v>17</v>
+      </c>
+      <c r="P13">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="20">
+        <f t="shared" si="0"/>
+        <v>0.37142857142857144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>34628</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>0.83</v>
+      </c>
+      <c r="K14">
+        <v>29</v>
+      </c>
+      <c r="L14">
+        <v>23</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14">
+        <v>6</v>
+      </c>
+      <c r="P14">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="20">
+        <f t="shared" si="0"/>
+        <v>0.25714285714285712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="5">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1">
+        <v>36590</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+      <c r="K15">
+        <v>23</v>
+      </c>
+      <c r="L15">
+        <v>24</v>
+      </c>
+      <c r="M15">
+        <v>-1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15">
+        <v>20</v>
+      </c>
+      <c r="P15">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="20">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="5">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1">
+        <v>36590</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.17</v>
+      </c>
+      <c r="K16">
+        <v>22</v>
+      </c>
+      <c r="L16">
+        <v>28</v>
+      </c>
+      <c r="M16">
+        <v>-6</v>
+      </c>
+      <c r="N16" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16">
+        <v>31</v>
+      </c>
+      <c r="P16">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="20">
+        <f t="shared" si="0"/>
+        <v>0.88571428571428568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="5">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1">
+        <v>36889</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+      <c r="K17">
+        <v>23</v>
+      </c>
+      <c r="L17">
+        <v>23</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17">
+        <v>18</v>
+      </c>
+      <c r="P17">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.65714285714285714</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="5">
+        <v>37</v>
+      </c>
+      <c r="H18" s="1">
+        <v>35681</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <v>30</v>
+      </c>
+      <c r="M18">
+        <v>-23</v>
+      </c>
+      <c r="N18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18">
+        <v>35</v>
+      </c>
+      <c r="P18">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="5">
+        <v>22</v>
+      </c>
+      <c r="H19" s="1">
+        <v>36091</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>0.33</v>
+      </c>
+      <c r="K19">
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <v>22</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19">
+        <v>23</v>
+      </c>
+      <c r="P19">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="20">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="5">
+        <v>32</v>
+      </c>
+      <c r="H20" s="1">
+        <v>37401</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>0.33</v>
+      </c>
+      <c r="K20">
+        <v>24</v>
+      </c>
+      <c r="L20">
+        <v>28</v>
+      </c>
+      <c r="M20">
+        <v>-4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20">
+        <v>26</v>
+      </c>
+      <c r="P20">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="20">
+        <f t="shared" si="0"/>
+        <v>0.74285714285714288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5">
+        <v>29</v>
+      </c>
+      <c r="H21" s="1">
+        <v>36841</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>0.67</v>
+      </c>
+      <c r="K21">
+        <v>26</v>
+      </c>
+      <c r="L21">
+        <v>22</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21">
+        <v>10</v>
+      </c>
+      <c r="P21">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="20">
+        <f t="shared" si="0"/>
+        <v>0.54285714285714282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>33018</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>30</v>
+      </c>
+      <c r="L22">
+        <v>19</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="20">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="5">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1">
+        <v>36310</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>0.5</v>
+      </c>
+      <c r="K23">
+        <v>24</v>
+      </c>
+      <c r="L23">
+        <v>23</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23">
+        <v>16</v>
+      </c>
+      <c r="P23">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="20">
+        <f t="shared" si="0"/>
+        <v>0.62857142857142856</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="5">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1">
+        <v>37444</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>0.5</v>
+      </c>
+      <c r="K24">
+        <v>23</v>
+      </c>
+      <c r="L24">
+        <v>26</v>
+      </c>
+      <c r="M24">
+        <v>-3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24">
+        <v>21</v>
+      </c>
+      <c r="P24">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="20">
+        <f t="shared" si="0"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="5">
+        <v>99</v>
+      </c>
+      <c r="H25" s="1">
+        <v>34791</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>0.67</v>
+      </c>
+      <c r="K25">
+        <v>27</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25">
+        <v>8</v>
+      </c>
+      <c r="P25">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="20">
+        <f t="shared" si="0"/>
+        <v>0.48571428571428571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="5">
+        <v>23</v>
+      </c>
+      <c r="H26" s="1">
+        <v>36481</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.17</v>
+      </c>
+      <c r="K26">
+        <v>23</v>
+      </c>
+      <c r="L26">
+        <v>28</v>
+      </c>
+      <c r="M26">
+        <v>-5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26">
+        <v>30</v>
+      </c>
+      <c r="P26">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="20">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="5">
+        <v>34</v>
+      </c>
+      <c r="H27" s="1">
+        <v>30846</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>0.33</v>
+      </c>
+      <c r="K27">
+        <v>23</v>
+      </c>
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>-2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27">
+        <v>25</v>
+      </c>
+      <c r="P27">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="20">
+        <f t="shared" si="0"/>
+        <v>0.45714285714285713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="5">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>36325</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>30</v>
+      </c>
+      <c r="L28">
+        <v>16</v>
+      </c>
+      <c r="M28">
+        <v>14</v>
+      </c>
+      <c r="N28" t="s">
+        <v>55</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="20">
+        <f t="shared" si="0"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="5">
+        <v>29</v>
+      </c>
+      <c r="H29" s="1">
+        <v>36380</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>0.67</v>
+      </c>
+      <c r="K29">
+        <v>25</v>
+      </c>
+      <c r="L29">
+        <v>22</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29">
+        <v>11</v>
+      </c>
+      <c r="P29">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="20">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="5">
+        <v>10</v>
+      </c>
+      <c r="H30" s="1">
+        <v>34911</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>0.67</v>
+      </c>
+      <c r="K30">
+        <v>28</v>
+      </c>
+      <c r="L30">
+        <v>23</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30">
+        <v>9</v>
+      </c>
+      <c r="P30">
+        <v>18</v>
+      </c>
+      <c r="Q30" s="20">
+        <f t="shared" si="0"/>
+        <v>0.51428571428571423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="5">
+        <v>16</v>
+      </c>
+      <c r="H31" s="1">
+        <v>35707</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>0.67</v>
+      </c>
+      <c r="K31">
+        <v>25</v>
+      </c>
+      <c r="L31">
+        <v>25</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O31">
+        <v>13</v>
+      </c>
+      <c r="P31">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="20">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="5">
+        <v>8</v>
+      </c>
+      <c r="H32" s="1">
+        <v>36429</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>0.5</v>
+      </c>
+      <c r="K32">
+        <v>25</v>
+      </c>
+      <c r="L32">
+        <v>21</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>55</v>
+      </c>
+      <c r="O32">
+        <v>15</v>
+      </c>
+      <c r="P32">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="20">
+        <f t="shared" si="0"/>
+        <v>0.34285714285714286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="5">
+        <v>99</v>
+      </c>
+      <c r="H33" s="1">
+        <v>36450</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>0.33</v>
+      </c>
+      <c r="K33">
+        <v>25</v>
+      </c>
+      <c r="L33">
+        <v>26</v>
+      </c>
+      <c r="M33">
+        <v>-1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>55</v>
+      </c>
+      <c r="O33">
+        <v>24</v>
+      </c>
+      <c r="P33">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="20">
+        <f t="shared" si="0"/>
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="5">
+        <v>15</v>
+      </c>
+      <c r="H34" s="1">
+        <v>37171</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>0.33</v>
+      </c>
+      <c r="K34">
+        <v>24</v>
+      </c>
+      <c r="L34">
+        <v>28</v>
+      </c>
+      <c r="M34">
+        <v>-4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O34">
+        <v>26</v>
+      </c>
+      <c r="P34">
+        <v>26</v>
+      </c>
+      <c r="Q34" s="20">
+        <f t="shared" si="0"/>
+        <v>0.74285714285714288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="5">
+        <v>14</v>
+      </c>
+      <c r="H35" s="1">
+        <v>37441</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>0.5</v>
+      </c>
+      <c r="K35">
+        <v>23</v>
+      </c>
+      <c r="L35">
+        <v>23</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>55</v>
+      </c>
+      <c r="O35">
+        <v>18</v>
+      </c>
+      <c r="P35">
+        <v>23</v>
+      </c>
+      <c r="Q35" s="20">
+        <f t="shared" si="0"/>
+        <v>0.65714285714285714</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="5">
+        <v>37</v>
+      </c>
+      <c r="H36" s="1">
+        <v>38143</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <v>29</v>
+      </c>
+      <c r="M36">
+        <v>-19</v>
+      </c>
+      <c r="N36" t="s">
+        <v>56</v>
+      </c>
+      <c r="O36">
+        <v>34</v>
+      </c>
+      <c r="P36">
+        <v>34</v>
+      </c>
+      <c r="Q36" s="20">
+        <f t="shared" si="0"/>
+        <v>0.97142857142857142</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{69E7459E-1464-4BEB-AA73-84C66830BC05}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,7 +3436,7 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F36">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1470,12 +3444,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C533AD-7BE7-4552-8B7C-963738E10E8D}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1529,31 +3503,31 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>-4</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
@@ -1570,31 +3544,31 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>55</v>
@@ -1611,31 +3585,31 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
         <v>55</v>
@@ -1652,31 +3626,31 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J5" t="s">
         <v>55</v>
@@ -1693,10 +3667,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1711,13 +3685,13 @@
         <v>0.83</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
         <v>55</v>
@@ -1734,31 +3708,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.33</v>
+      </c>
+      <c r="G7">
+        <v>19</v>
+      </c>
+      <c r="H7">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>0.83</v>
-      </c>
-      <c r="G7">
-        <v>29</v>
-      </c>
-      <c r="H7">
-        <v>23</v>
-      </c>
       <c r="I7">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="J7" t="s">
         <v>55</v>
@@ -1775,31 +3749,31 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G8">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>-6</v>
       </c>
       <c r="J8" t="s">
         <v>55</v>
@@ -1816,31 +3790,31 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
         <v>55</v>
@@ -1857,34 +3831,34 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H10">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>-13</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K10" s="1">
         <v>44093</v>
@@ -1898,10 +3872,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1910,22 +3884,22 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
         <v>26</v>
       </c>
-      <c r="H11">
-        <v>22</v>
-      </c>
       <c r="I11">
-        <v>4</v>
+        <v>-10</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K11" s="1">
         <v>44093</v>
@@ -1980,31 +3954,31 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
         <v>25</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>55</v>
@@ -2021,31 +3995,31 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G14">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J14" t="s">
         <v>55</v>
@@ -2062,10 +4036,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -2080,13 +4054,13 @@
         <v>0.5</v>
       </c>
       <c r="G15">
+        <v>23</v>
+      </c>
+      <c r="H15">
         <v>24</v>
       </c>
-      <c r="H15">
-        <v>18</v>
-      </c>
       <c r="I15">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="J15" t="s">
         <v>55</v>
@@ -2103,10 +4077,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -2115,22 +4089,22 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G16">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16" s="1">
         <v>44093</v>
@@ -2144,13 +4118,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -2162,13 +4136,13 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17">
         <v>23</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>55</v>
@@ -2185,34 +4159,34 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H18">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K18" s="1">
         <v>44093</v>
@@ -2226,31 +4200,31 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.33</v>
+      </c>
+      <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <v>22</v>
+      </c>
+      <c r="I19">
         <v>3</v>
-      </c>
-      <c r="F19">
-        <v>0.5</v>
-      </c>
-      <c r="G19">
-        <v>23</v>
-      </c>
-      <c r="H19">
-        <v>23</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>55</v>
@@ -2267,31 +4241,31 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.33</v>
+      </c>
+      <c r="G20">
+        <v>24</v>
+      </c>
+      <c r="H20">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>0.5</v>
-      </c>
-      <c r="G20">
-        <v>23</v>
-      </c>
-      <c r="H20">
-        <v>23</v>
-      </c>
       <c r="I20">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="J20" t="s">
         <v>55</v>
@@ -2308,31 +4282,31 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>0.67</v>
+      </c>
+      <c r="G21">
         <v>26</v>
       </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>0.5</v>
-      </c>
-      <c r="G21">
-        <v>23</v>
-      </c>
       <c r="H21">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
         <v>55</v>
@@ -2349,31 +4323,31 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I22">
-        <v>-3</v>
+        <v>11</v>
       </c>
       <c r="J22" t="s">
         <v>55</v>
@@ -2390,13 +4364,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -2408,13 +4382,13 @@
         <v>0.5</v>
       </c>
       <c r="G23">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H23">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I23">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>55</v>
@@ -2431,31 +4405,31 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.33</v>
-      </c>
-      <c r="G24">
-        <v>25</v>
-      </c>
       <c r="H24">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="J24" t="s">
         <v>55</v>
@@ -2472,10 +4446,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2484,19 +4458,19 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="G25">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H25">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J25" t="s">
         <v>55</v>
@@ -2513,34 +4487,34 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G26">
         <v>23</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I26">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K26" s="1">
         <v>44093</v>
@@ -2554,13 +4528,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -2572,13 +4546,13 @@
         <v>0.33</v>
       </c>
       <c r="G27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I27">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="J27" t="s">
         <v>55</v>
@@ -2595,31 +4569,31 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I28">
-        <v>-4</v>
+        <v>14</v>
       </c>
       <c r="J28" t="s">
         <v>55</v>
@@ -2636,31 +4610,31 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="G29">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H29">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I29">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
         <v>55</v>
@@ -2677,31 +4651,31 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>0.67</v>
+      </c>
+      <c r="G30">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.33</v>
-      </c>
-      <c r="G30">
-        <v>19</v>
-      </c>
       <c r="H30">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I30">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="J30" t="s">
         <v>55</v>
@@ -2718,34 +4692,34 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="G31">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H31">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I31">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K31" s="1">
         <v>44093</v>
@@ -2759,10 +4733,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -2771,22 +4745,22 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G32">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H32">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I32">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="J32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K32" s="1">
         <v>44093</v>
@@ -2800,10 +4774,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2812,22 +4786,22 @@
         <v>8</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G33">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H33">
         <v>26</v>
       </c>
       <c r="I33">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="J33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33" s="1">
         <v>44093</v>
@@ -2841,34 +4815,34 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G34">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H34">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I34">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="J34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K34" s="1">
         <v>44093</v>
@@ -2882,34 +4856,34 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>23</v>
+      </c>
+      <c r="H35">
+        <v>23</v>
+      </c>
+      <c r="I35">
         <v>0</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>10</v>
-      </c>
-      <c r="H35">
-        <v>29</v>
-      </c>
-      <c r="I35">
-        <v>-19</v>
-      </c>
       <c r="J35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K35" s="1">
         <v>44093</v>
@@ -2923,13 +4897,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -2941,13 +4915,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H36">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I36">
-        <v>-23</v>
+        <v>-19</v>
       </c>
       <c r="J36" t="s">
         <v>56</v>
@@ -2963,18 +4937,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{31C533AD-7BE7-4552-8B7C-963738E10E8D}"/>
+  <autoFilter ref="A1:M1" xr:uid="{31C533AD-7BE7-4552-8B7C-963738E10E8D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M36">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC4E61E-700E-47C1-974E-B2CB21C62770}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3013,19 +4991,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>33018</v>
+        <v>37414</v>
       </c>
       <c r="F2" s="1">
         <v>44093</v>
@@ -3039,10 +5017,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -3051,7 +5029,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>36325</v>
+        <v>37371</v>
       </c>
       <c r="F3" s="1">
         <v>44093</v>
@@ -3065,19 +5043,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>37414</v>
+        <v>36617</v>
       </c>
       <c r="F4" s="1">
         <v>44093</v>
@@ -3091,19 +5069,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>37371</v>
+        <v>29490</v>
       </c>
       <c r="F5" s="1">
         <v>44093</v>
@@ -3117,10 +5095,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -3129,7 +5107,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>33010</v>
+        <v>37189</v>
       </c>
       <c r="F6" s="1">
         <v>44093</v>
@@ -3143,10 +5121,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -3155,7 +5133,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="1">
-        <v>37189</v>
+        <v>37903</v>
       </c>
       <c r="F7" s="1">
         <v>44093</v>
@@ -3169,19 +5147,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1">
-        <v>36617</v>
+        <v>32455</v>
       </c>
       <c r="F8" s="1">
         <v>44093</v>
@@ -3195,19 +5173,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1">
-        <v>36450</v>
+        <v>33010</v>
       </c>
       <c r="F9" s="1">
         <v>44093</v>
@@ -3221,19 +5199,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1">
-        <v>34628</v>
+        <v>33420</v>
       </c>
       <c r="F10" s="1">
         <v>44093</v>
@@ -3247,19 +5225,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="1">
-        <v>36380</v>
+        <v>37260</v>
       </c>
       <c r="F11" s="1">
         <v>44093</v>
@@ -3273,19 +5251,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1">
-        <v>29490</v>
+        <v>37934</v>
       </c>
       <c r="F12" s="1">
         <v>44093</v>
@@ -3299,19 +5277,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="1">
-        <v>36429</v>
+        <v>35537</v>
       </c>
       <c r="F13" s="1">
         <v>44093</v>
@@ -3325,10 +5303,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3337,7 +5315,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="1">
-        <v>35537</v>
+        <v>34628</v>
       </c>
       <c r="F14" s="1">
         <v>44093</v>
@@ -3377,19 +5355,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="1">
-        <v>36091</v>
+        <v>36590</v>
       </c>
       <c r="F16" s="1">
         <v>44093</v>
@@ -3403,19 +5381,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="1">
-        <v>30846</v>
+        <v>36889</v>
       </c>
       <c r="F17" s="1">
         <v>44093</v>
@@ -3429,19 +5407,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="1">
-        <v>34791</v>
+        <v>35681</v>
       </c>
       <c r="F18" s="1">
         <v>44093</v>
@@ -3455,19 +5433,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="1">
-        <v>34911</v>
+        <v>36091</v>
       </c>
       <c r="F19" s="1">
         <v>44093</v>
@@ -3481,19 +5459,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="1">
-        <v>36841</v>
+        <v>37401</v>
       </c>
       <c r="F20" s="1">
         <v>44093</v>
@@ -3507,19 +5485,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="1">
-        <v>37934</v>
+        <v>36841</v>
       </c>
       <c r="F21" s="1">
         <v>44093</v>
@@ -3533,19 +5511,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="1">
-        <v>35707</v>
+        <v>33018</v>
       </c>
       <c r="F22" s="1">
         <v>44093</v>
@@ -3585,19 +5563,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="1">
-        <v>36889</v>
+        <v>37444</v>
       </c>
       <c r="F24" s="1">
         <v>44093</v>
@@ -3611,19 +5589,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="1">
-        <v>37441</v>
+        <v>34791</v>
       </c>
       <c r="F25" s="1">
         <v>44093</v>
@@ -3637,19 +5615,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="1">
-        <v>37444</v>
+        <v>36481</v>
       </c>
       <c r="F26" s="1">
         <v>44093</v>
@@ -3663,19 +5641,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="1">
-        <v>37401</v>
+        <v>30846</v>
       </c>
       <c r="F27" s="1">
         <v>44093</v>
@@ -3689,10 +5667,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -3701,7 +5679,7 @@
         <v>8</v>
       </c>
       <c r="E28" s="1">
-        <v>37171</v>
+        <v>36325</v>
       </c>
       <c r="F28" s="1">
         <v>44093</v>
@@ -3715,19 +5693,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="1">
-        <v>37903</v>
+        <v>36380</v>
       </c>
       <c r="F29" s="1">
         <v>44093</v>
@@ -3741,19 +5719,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="1">
-        <v>32455</v>
+        <v>34911</v>
       </c>
       <c r="F30" s="1">
         <v>44093</v>
@@ -3767,19 +5745,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="1">
-        <v>36481</v>
+        <v>35707</v>
       </c>
       <c r="F31" s="1">
         <v>44093</v>
@@ -3793,10 +5771,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -3805,7 +5783,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="1">
-        <v>36590</v>
+        <v>36429</v>
       </c>
       <c r="F32" s="1">
         <v>44093</v>
@@ -3819,10 +5797,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3831,7 +5809,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="1">
-        <v>37260</v>
+        <v>36450</v>
       </c>
       <c r="F33" s="1">
         <v>44093</v>
@@ -3845,19 +5823,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="1">
-        <v>33420</v>
+        <v>37171</v>
       </c>
       <c r="F34" s="1">
         <v>44093</v>
@@ -3871,19 +5849,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="1">
-        <v>38143</v>
+        <v>37441</v>
       </c>
       <c r="F35" s="1">
         <v>44093</v>
@@ -3897,19 +5875,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="1">
-        <v>35681</v>
+        <v>38143</v>
       </c>
       <c r="F36" s="1">
         <v>44093</v>
@@ -3922,13 +5900,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{BFC4E61E-700E-47C1-974E-B2CB21C62770}"/>
+  <autoFilter ref="A1:H1" xr:uid="{BFC4E61E-700E-47C1-974E-B2CB21C62770}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H36">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64FECC0-D997-4244-BDAB-FFDC8BF060FE}">
   <dimension ref="A1:K212"/>
   <sheetViews>
@@ -11342,11 +13324,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F8EB85-1F3E-44BD-8E67-3D5B65669FA8}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
